--- a/log.xlsx
+++ b/log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csommerlatte\launch_school\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csommerlatte\js_101\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC89FBF-AEE0-40CA-ABBE-83DDBBD25E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16747081-2E53-4252-80E4-F28205044046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,7 +136,7 @@
     <t>Finished 4 small problems + further exploration</t>
   </si>
   <si>
-    <t>Finished 2 small problem</t>
+    <t>Finished 3 small problems</t>
   </si>
 </sst>
 </file>
@@ -522,7 +522,7 @@
   <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,7 +1203,7 @@
         <v>17</v>
       </c>
       <c r="C58" s="1">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>34</v>
@@ -1247,7 +1247,7 @@
       <c r="C64" s="1"/>
       <c r="D64" s="3">
         <f>SUM(C57:C63)</f>
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="C65" s="1">
         <f>SUBTOTAL(109,Table1[Hours])</f>
-        <v>80.150000000000006</v>
+        <v>80.400000000000006</v>
       </c>
     </row>
   </sheetData>
